--- a/public/excel/query/Given-a-year_input-and-an-input-of-color_pm25-level-of-health-concern-from-the-user,-calculate-a-total-of-the-affected-population-(in-number).xlsx
+++ b/public/excel/query/Given-a-year_input-and-an-input-of-color_pm25-level-of-health-concern-from-the-user,-calculate-a-total-of-the-affected-population-(in-number).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="green 2015 total affected " state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="green 2014 total affected " state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -407,7 +407,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>172350485</v>
+        <v>252432584</v>
       </c>
     </row>
   </sheetData>
